--- a/Littetlfuse/Littelfuse_grad.xlsx
+++ b/Littetlfuse/Littelfuse_grad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekty\microczp_notatki\zlecenie\Littetlfuse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754EC546-F216-4F68-AFC1-D25B91FF3F02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60898BD9-DE6A-4DF9-8C22-D1D97338F5ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>W naszej ofercie znajdują się bezpieczniki specjalnego zastosowania renomowanej firmy Littelfuse, która jest światowym producentem wiodących technologi w zakresie ochorny obwodów, m.in. poprzez produkcję wyspecjalizowanych bezpieczników. Produktów tej firmy używa ponad 100 tysięcy klientów końcowych, a spotkać je można na każdym kroku m. in. w samochodach, sprzęcie medycznym, liniach produkcyjncyh, urządzeniach telekomunikacyjnych oraz codziennego użytku na całym świecie.</t>
+    <t xml:space="preserve">W naszej ofercie znajdują się bezpieczniki specjalnego zastosowania renomowanej firmy Littelfuse, która jest światowym producentem wiodących technologi w zakresie ochorny obwodów. Produktów tej firmy używa ponad 100 tysięcy klientów końcowych, a spotkać je można na każdym kroku m. in. w samochodach, sprzęcie medycznym, liniach produkcyjncyh, urządzeniach telekomunikacyjnych oraz sprzęcie codziennego użytku na całym świecie.
+Bezpieczniki serii 259 (0259.062T, 0259.125T, 0259.250T, 0259.375T) są przeznaczone do zastosowań w strefach niebezpiecznych, oraz zagrożonych wybuchem. Zostały one pierwotnie stworzone z myślą o potrzebach firm gazowniczych i przemysłu petrochemicznego, dlatego bezpieczniki są certyfikowane do użytku w urządzeniach iskrobezpiecznych z certyfikatami ATEX i IECEx dla prądów od 0.062A do 5A. 
+Bezpieczniki seri 251 (0251015.HAT1L) zostały zaprojektowane do zastosowań w urządzeniach gdzie krytycznym parametrem jest ich czas zadziałąnia. Są to bardzo szybko działające bezpieczniki chrakteryzujące się małym rozmiarem i szerokim zakresem temperatur i prądów pracy. 
+Bezpieczniki seri RXEF (RXEF250) charakteryzuje bardzo niski prąd podtrzymania (do 50 mA) oraz wysokie napięcie znamieniowe (do 72 V). </t>
   </si>
 </sst>
 </file>
@@ -348,15 +351,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="168" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="222" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -370,10 +373,12 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Littetlfuse/Littelfuse_grad.xlsx
+++ b/Littetlfuse/Littelfuse_grad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekty\microczp_notatki\zlecenie\Littetlfuse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60898BD9-DE6A-4DF9-8C22-D1D97338F5ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE92AFD8-5AF0-4A82-9CF5-6520AAD09568}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,24 +25,147 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t xml:space="preserve">W naszej ofercie znajdują się bezpieczniki specjalnego zastosowania renomowanej firmy Littelfuse, która jest światowym producentem wiodących technologi w zakresie ochorny obwodów. Produktów tej firmy używa ponad 100 tysięcy klientów końcowych, a spotkać je można na każdym kroku m. in. w samochodach, sprzęcie medycznym, liniach produkcyjncyh, urządzeniach telekomunikacyjnych oraz sprzęcie codziennego użytku na całym świecie.
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>zastosowanie</t>
+  </si>
+  <si>
+    <t>0259.062T</t>
+  </si>
+  <si>
+    <t>0259.125T</t>
+  </si>
+  <si>
+    <t>0259.250T</t>
+  </si>
+  <si>
+    <t>0259.375T</t>
+  </si>
+  <si>
+    <t>0251015.HAT1L</t>
+  </si>
+  <si>
+    <t>RXEF250</t>
+  </si>
+  <si>
+    <t>temp. pracy</t>
+  </si>
+  <si>
+    <t>- 55°C do 125°C</t>
+  </si>
+  <si>
+    <t>- 40°C do ~85°C</t>
+  </si>
+  <si>
+    <t>- 55°C do 90°C</t>
+  </si>
+  <si>
+    <t>0,05-0,08</t>
+  </si>
+  <si>
+    <t>wymiary [mm]</t>
+  </si>
+  <si>
+    <t>13 x 13</t>
+  </si>
+  <si>
+    <t>2,8 x 7,1</t>
+  </si>
+  <si>
+    <t>Natęzenie prądu [A]</t>
+  </si>
+  <si>
+    <t>Maksymalne dopuszczale napięcie [V]</t>
+  </si>
+  <si>
+    <t>20,1 x 33</t>
+  </si>
+  <si>
+    <t>Rezystancja w 20°C [Ω]</t>
+  </si>
+  <si>
+    <t>Nominal Melting I²T (A²sec)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>0.00007</t>
+  </si>
+  <si>
+    <t>0.0012</t>
+  </si>
+  <si>
+    <t>0.0095</t>
+  </si>
+  <si>
+    <t>0.025</t>
+  </si>
+  <si>
+    <t>0.721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urządzenia pracujące w strefach zagrożonych wybuchem gazu z powodu wadliwych obwodów elektrycznych. Zakłady gazownicze, przemysł petrochemiczny i przetwórczy używający gaz. </t>
+  </si>
+  <si>
+    <t>W naszej ofercie znajdują się bezpieczniki specjalnego zastosowania renomowanej firmy Littelfuse, która jest światowym producentem wiodących technologi w zakresie ochorny obwodów. Produktów tej firmy używa ponad 100 tysięcy klientów końcowych, a spotkać je można na każdym kroku m. in. w samochodach, sprzęcie medycznym, liniach produkcyjncyh, urządzeniach telekomunikacyjnych oraz sprzęcie codziennego użytku na całym świecie.
 Bezpieczniki serii 259 (0259.062T, 0259.125T, 0259.250T, 0259.375T) są przeznaczone do zastosowań w strefach niebezpiecznych, oraz zagrożonych wybuchem. Zostały one pierwotnie stworzone z myślą o potrzebach firm gazowniczych i przemysłu petrochemicznego, dlatego bezpieczniki są certyfikowane do użytku w urządzeniach iskrobezpiecznych z certyfikatami ATEX i IECEx dla prądów od 0.062A do 5A. 
-Bezpieczniki seri 251 (0251015.HAT1L) zostały zaprojektowane do zastosowań w urządzeniach gdzie krytycznym parametrem jest ich czas zadziałąnia. Są to bardzo szybko działające bezpieczniki chrakteryzujące się małym rozmiarem i szerokim zakresem temperatur i prądów pracy. 
-Bezpieczniki seri RXEF (RXEF250) charakteryzuje bardzo niski prąd podtrzymania (do 50 mA) oraz wysokie napięcie znamieniowe (do 72 V). </t>
+Bezpieczniki seri 251 (0251015.HAT1L) zostały zaprojektowane do zastosowań w urządzeniach gdzie krytycznym parametrem jest ich czas zadziałąnia i rozmiar. Są to bardzo szybko działające bezpieczniki chrakteryzujące się małym rozmiarem i szerokim zakresem temperatur i prądów pracy. 
+Bezpieczniki seri RXEF (RXEF250) charakteryzuje bardzo niski prąd podtrzymania (do 50 mA) oraz wysokie napięcie znamieniowe (do 72 V). W procesie produkcyjnym nie zastosowano ołowiu ani pierwiastków  zgrupy halogenów.</t>
+  </si>
+  <si>
+    <t>płaskie wyświetlacze, monitory LCD, zasilacze, systemy audio / wideo, systemy oświetlenia, sprzęt medyczny</t>
+  </si>
+  <si>
+    <t>odbiorniki wiedo, płyty głowne do komputerów, modemy, huby usb, telefony, maszyny do gier, faksy, drukarki</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -63,16 +186,52 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Dziesiętny" xfId="1" builtinId="3"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -351,17 +510,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="23.9296875" customWidth="1"/>
+    <col min="2" max="2" width="16.46484375" customWidth="1"/>
+    <col min="3" max="3" width="15.265625" customWidth="1"/>
+    <col min="4" max="4" width="14.06640625" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.1328125" customWidth="1"/>
+    <col min="7" max="7" width="16.19921875" customWidth="1"/>
+    <col min="8" max="8" width="47.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="222" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="196.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -370,16 +539,269 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="3" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6">
+        <v>6.2E-2</v>
+      </c>
+      <c r="C5" s="8">
+        <v>125</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="6">
+        <v>7</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="C6" s="8">
+        <v>125</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="C7" s="8">
+        <v>125</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="C8" s="8">
+        <v>125</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="C10" s="8">
+        <v>125</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="6">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="C12" s="8">
+        <v>72</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+  <mergeCells count="2">
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Littetlfuse/Littelfuse_grad.xlsx
+++ b/Littetlfuse/Littelfuse_grad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekty\microczp_notatki\zlecenie\Littetlfuse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE92AFD8-5AF0-4A82-9CF5-6520AAD09568}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB613E07-A311-46F7-A1C0-1972F627F628}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,16 +111,16 @@
     <t xml:space="preserve">urządzenia pracujące w strefach zagrożonych wybuchem gazu z powodu wadliwych obwodów elektrycznych. Zakłady gazownicze, przemysł petrochemiczny i przetwórczy używający gaz. </t>
   </si>
   <si>
+    <t>płaskie wyświetlacze, monitory LCD, zasilacze, systemy audio / wideo, systemy oświetlenia, sprzęt medyczny</t>
+  </si>
+  <si>
+    <t>odbiorniki wiedo, płyty głowne do komputerów, modemy, huby usb, telefony, maszyny do gier, faksy, drukarki</t>
+  </si>
+  <si>
     <t>W naszej ofercie znajdują się bezpieczniki specjalnego zastosowania renomowanej firmy Littelfuse, która jest światowym producentem wiodących technologi w zakresie ochorny obwodów. Produktów tej firmy używa ponad 100 tysięcy klientów końcowych, a spotkać je można na każdym kroku m. in. w samochodach, sprzęcie medycznym, liniach produkcyjncyh, urządzeniach telekomunikacyjnych oraz sprzęcie codziennego użytku na całym świecie.
 Bezpieczniki serii 259 (0259.062T, 0259.125T, 0259.250T, 0259.375T) są przeznaczone do zastosowań w strefach niebezpiecznych, oraz zagrożonych wybuchem. Zostały one pierwotnie stworzone z myślą o potrzebach firm gazowniczych i przemysłu petrochemicznego, dlatego bezpieczniki są certyfikowane do użytku w urządzeniach iskrobezpiecznych z certyfikatami ATEX i IECEx dla prądów od 0.062A do 5A. 
-Bezpieczniki seri 251 (0251015.HAT1L) zostały zaprojektowane do zastosowań w urządzeniach gdzie krytycznym parametrem jest ich czas zadziałąnia i rozmiar. Są to bardzo szybko działające bezpieczniki chrakteryzujące się małym rozmiarem i szerokim zakresem temperatur i prądów pracy. 
+Bezpieczniki seri 251 (0251015.HAT1L) zostały zaprojektowane do zastosowań w urządzeniach gdzie krytycznym parametrem jest ich czas zadziałania i rozmiar. Są to bardzo szybko działające bezpieczniki chrakteryzujące się małym rozmiarem i szerokim zakresem temperatur i prądów pracy. 
 Bezpieczniki seri RXEF (RXEF250) charakteryzuje bardzo niski prąd podtrzymania (do 50 mA) oraz wysokie napięcie znamieniowe (do 72 V). W procesie produkcyjnym nie zastosowano ołowiu ani pierwiastków  zgrupy halogenów.</t>
-  </si>
-  <si>
-    <t>płaskie wyświetlacze, monitory LCD, zasilacze, systemy audio / wideo, systemy oświetlenia, sprzęt medyczny</t>
-  </si>
-  <si>
-    <t>odbiorniki wiedo, płyty głowne do komputerów, modemy, huby usb, telefony, maszyny do gier, faksy, drukarki</t>
   </si>
 </sst>
 </file>
@@ -129,8 +129,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -196,22 +196,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -223,10 +220,13 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -513,7 +513,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -529,271 +529,271 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="196.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="A1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>6.2E-2</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>125</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>7</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="5"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>0.125</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>125</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>1.7</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="12"/>
-      <c r="I6" s="5"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>0.25</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>125</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>0.66500000000000004</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H7" s="12"/>
-      <c r="I7" s="5"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>0.375</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>125</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>0.39500000000000002</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H8" s="12"/>
-      <c r="I8" s="5"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="5"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>2.5</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>125</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="C12" s="7">
+        <v>72</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:13" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="C12" s="8">
-        <v>72</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="5"/>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
